--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-375337.5846247946</v>
+        <v>-378038.8012762508</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673444</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>232.2791855053265</v>
+      </c>
+      <c r="G2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>225.4031397636151</v>
       </c>
       <c r="H2" t="n">
         <v>263.7138800015061</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>32.71620594905132</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>35.92273591503163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>28.4497538457772</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>169.9915887442754</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>122.9159174614661</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776993</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="H5" t="n">
-        <v>50.7722111694894</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863676</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>143.3066953660374</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4722490968155</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154321</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>122.8378367624546</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>133.0852419697873</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643436</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>56.34236173636212</v>
       </c>
       <c r="V7" t="n">
-        <v>69.78078645786655</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>162.9199524391217</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.78155647019809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>264.3980045380951</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>71.3724271235307</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184577</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>128.090925350675</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.5830289245595</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812554</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530801</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.6502311075614</v>
       </c>
       <c r="T12" t="n">
         <v>189.7415240061373</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>136.7254352278154</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.81330679905251</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1585,7 +1585,7 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.2428087323547</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417102</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>22.10695458833823</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>185.8319184229592</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>60.64713141731503</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462201</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>81.89830436238701</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>84.53948348634505</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.22340015155889</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>91.87204320893622</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>91.89996056624801</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>151.3113851298092</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.5813113004301</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428129</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>176.1811323375798</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.24347904696366</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>140.1230996349838</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>37.41782514684022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>114.5120075176653</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4028,7 +4028,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>107.4021082756242</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388465</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="F2" t="n">
-        <v>515.1547061224652</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
         <v>287.4747669672984</v>
@@ -4328,19 +4328,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
@@ -4349,31 +4349,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006024</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388465</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>598.8123849629098</v>
+        <v>832.0187073593814</v>
       </c>
       <c r="C3" t="n">
-        <v>598.8123849629098</v>
+        <v>657.5656780782545</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776108</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>46.96951069551319</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>121.6535314649673</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>268.3979551252638</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1003.472963537005</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>806.6638851684427</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>806.6638851684427</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="V3" t="n">
-        <v>806.6638851684427</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="W3" t="n">
-        <v>806.6638851684427</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8123849629098</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="Y3" t="n">
-        <v>598.8123849629098</v>
+        <v>1000.234044379449</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9870578980309</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980309</v>
+        <v>531.6577726708149</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>381.5411332584791</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>233.628039676086</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4495,43 +4495,43 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
         <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006024</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>883.1468445067562</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>883.1468445067562</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="U4" t="n">
-        <v>616.7691879395783</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="V4" t="n">
-        <v>616.7691879395783</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="W4" t="n">
-        <v>616.7691879395783</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="X4" t="n">
-        <v>388.7796370415609</v>
+        <v>700.5939555987218</v>
       </c>
       <c r="Y4" t="n">
-        <v>167.9870578980309</v>
+        <v>700.5939555987218</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.7357146996322</v>
+        <v>525.5071644330935</v>
       </c>
       <c r="C5" t="n">
-        <v>459.7357146996322</v>
+        <v>525.5071644330935</v>
       </c>
       <c r="D5" t="n">
-        <v>101.4700160928817</v>
+        <v>525.5071644330935</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4700160928817</v>
+        <v>525.5071644330935</v>
       </c>
       <c r="F5" t="n">
-        <v>94.5245153436782</v>
+        <v>518.5616636838901</v>
       </c>
       <c r="G5" t="n">
-        <v>81.98008001259747</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523443</v>
+        <v>130.9983022541606</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275181</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245555</v>
+        <v>239.032598924557</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825623</v>
+        <v>456.1499114825646</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748847</v>
+        <v>729.404193174888</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202378</v>
+        <v>1011.693823202382</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798411</v>
+        <v>1264.916654798416</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189408</v>
+        <v>1446.535482189414</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.99667351825</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="T5" t="n">
-        <v>1177.398442107325</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="U5" t="n">
-        <v>1177.398442107325</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="V5" t="n">
-        <v>846.335554763754</v>
+        <v>1389.996673518256</v>
       </c>
       <c r="W5" t="n">
-        <v>846.335554763754</v>
+        <v>1037.228018248142</v>
       </c>
       <c r="X5" t="n">
-        <v>846.335554763754</v>
+        <v>1037.228018248142</v>
       </c>
       <c r="Y5" t="n">
-        <v>846.335554763754</v>
+        <v>649.6646568184128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.5343103112228</v>
+        <v>609.4800638574347</v>
       </c>
       <c r="C6" t="n">
-        <v>461.5343103112228</v>
+        <v>485.4014408650564</v>
       </c>
       <c r="D6" t="n">
-        <v>461.5343103112228</v>
+        <v>336.4670312038051</v>
       </c>
       <c r="E6" t="n">
-        <v>302.2968553057673</v>
+        <v>177.2295761983496</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8673179625478</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563406</v>
+        <v>174.2721860626393</v>
       </c>
       <c r="K6" t="n">
-        <v>231.3726631383838</v>
+        <v>284.46869300395</v>
       </c>
       <c r="L6" t="n">
-        <v>425.8680069697356</v>
+        <v>478.9640368353024</v>
       </c>
       <c r="M6" t="n">
-        <v>672.1917676404812</v>
+        <v>725.2877975060488</v>
       </c>
       <c r="N6" t="n">
-        <v>939.4436302127033</v>
+        <v>992.5396600782717</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749979</v>
+        <v>1214.803107243791</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948667</v>
+        <v>1478.347425948673</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="S6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="T6" t="n">
-        <v>1534.750911261722</v>
+        <v>1534.750911261729</v>
       </c>
       <c r="U6" t="n">
-        <v>1534.750911261722</v>
+        <v>1306.629827582333</v>
       </c>
       <c r="V6" t="n">
-        <v>1299.598803029979</v>
+        <v>1071.47771935059</v>
       </c>
       <c r="W6" t="n">
-        <v>1045.361446301778</v>
+        <v>817.2403626223886</v>
       </c>
       <c r="X6" t="n">
-        <v>837.5099460962447</v>
+        <v>817.2403626223886</v>
       </c>
       <c r="Y6" t="n">
-        <v>629.7496473312908</v>
+        <v>609.4800638574347</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>649.9097646613653</v>
+        <v>180.5325927294897</v>
       </c>
       <c r="C7" t="n">
-        <v>480.9735817334584</v>
+        <v>180.5325927294897</v>
       </c>
       <c r="D7" t="n">
-        <v>330.8569423211227</v>
+        <v>180.5325927294897</v>
       </c>
       <c r="E7" t="n">
-        <v>182.9438487387296</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="F7" t="n">
-        <v>182.9438487387296</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="G7" t="n">
-        <v>182.9438487387296</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523443</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523443</v>
+        <v>32.61949914709663</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523443</v>
+        <v>30.69501822523457</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223265</v>
+        <v>157.432275622327</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830387</v>
+        <v>375.1387655830395</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388148</v>
+        <v>615.0688576388161</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974819</v>
+        <v>854.7285647974836</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="R7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="S7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495186</v>
       </c>
       <c r="T7" t="n">
-        <v>1009.535278371728</v>
+        <v>1009.53527837173</v>
       </c>
       <c r="U7" t="n">
-        <v>720.3954075480992</v>
+        <v>952.6238018703546</v>
       </c>
       <c r="V7" t="n">
-        <v>649.9097646613653</v>
+        <v>697.9393136644677</v>
       </c>
       <c r="W7" t="n">
-        <v>649.9097646613653</v>
+        <v>408.5221436275071</v>
       </c>
       <c r="X7" t="n">
-        <v>649.9097646613653</v>
+        <v>180.5325927294897</v>
       </c>
       <c r="Y7" t="n">
-        <v>649.9097646613653</v>
+        <v>180.5325927294897</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>842.8595545333294</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="C8" t="n">
-        <v>473.8970375929177</v>
+        <v>1467.142397928549</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>1108.876699321799</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>1108.876699321799</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>697.8907945321912</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>282.18604425648</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764997</v>
@@ -4835,19 +4835,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.459394597451</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>663.7249087127072</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="C10" t="n">
-        <v>494.7887257848004</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1146.398947816612</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>891.7144596107246</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W10" t="n">
-        <v>891.7144596107246</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X10" t="n">
-        <v>663.7249087127072</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.7249087127072</v>
+        <v>600.6438724554071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2040.546330724784</v>
+        <v>1918.837135195601</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784372</v>
+        <v>1549.87461825519</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177622</v>
+        <v>1191.608919648439</v>
       </c>
       <c r="E11" t="n">
-        <v>927.529862579378</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897707</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>394.8347622605879</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309164</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656946</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625327</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087832</v>
+        <v>1828.956123087828</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484038</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535297</v>
+        <v>3033.988513535292</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479991</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464056</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796031</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796031</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377402</v>
+        <v>3672.904689377395</v>
       </c>
       <c r="U11" t="n">
-        <v>3543.519916295912</v>
+        <v>3672.904689377395</v>
       </c>
       <c r="V11" t="n">
-        <v>3543.519916295912</v>
+        <v>3421.810720766729</v>
       </c>
       <c r="W11" t="n">
-        <v>3190.751261025797</v>
+        <v>3069.042065496615</v>
       </c>
       <c r="X11" t="n">
-        <v>2817.285502764717</v>
+        <v>2695.576307235535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2427.146170788906</v>
+        <v>2305.436975259723</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
         <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870408</v>
       </c>
       <c r="K12" t="n">
-        <v>193.8410919870413</v>
+        <v>470.7769964046647</v>
       </c>
       <c r="L12" t="n">
-        <v>612.538132644993</v>
+        <v>889.4740370626155</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749522</v>
+        <v>1397.430603019143</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1933.239912720352</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2401.180957052874</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2401.180957052874</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>518.9401063277002</v>
+        <v>227.6543053282563</v>
       </c>
       <c r="C13" t="n">
-        <v>518.9401063277002</v>
+        <v>227.6543053282563</v>
       </c>
       <c r="D13" t="n">
-        <v>368.8234669153644</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153644</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="F13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="G13" t="n">
-        <v>221.933519417454</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592061</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.5788654344801</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376938</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336946</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818663</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.94034901072</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.362968742806</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2056.743466925581</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.62761945888</v>
+        <v>1868.627619458877</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.73628689332</v>
+        <v>1647.736286893317</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842771</v>
+        <v>1358.644593842768</v>
       </c>
       <c r="V13" t="n">
-        <v>1358.644593842771</v>
+        <v>1103.960105636881</v>
       </c>
       <c r="W13" t="n">
-        <v>1069.22742380581</v>
+        <v>814.5429355999202</v>
       </c>
       <c r="X13" t="n">
-        <v>841.237872907793</v>
+        <v>586.5533847019028</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.5885711579399</v>
+        <v>365.7608055583727</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>175.874420793908</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>671.2000270096665</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>869.9745311434705</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>869.9745311434705</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>719.8578917311347</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>571.9447981487416</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>425.0548506508312</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>257.858751365711</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>116.1469202079091</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="V16" t="n">
-        <v>1567.722549094264</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W16" t="n">
-        <v>1278.305379057304</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X16" t="n">
-        <v>1050.315828159286</v>
+        <v>1272.41557511724</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>1051.62299597371</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,13 +5540,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516144</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.52849420577</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>235.52849420577</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2297.191819870656</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2077.590354893597</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1788.515128237795</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1788.515128237795</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1499.097958200834</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302816</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159286</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,7 +5744,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,10 +5753,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>869.9745311434707</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>701.0383482155638</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>550.9217088032281</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>403.0086152208349</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>403.0086152208349</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2412.393992518079</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2229.539158172984</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>2009.937693195925</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U22" t="n">
-        <v>1720.862466540123</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="V22" t="n">
-        <v>1466.177978334236</v>
+        <v>1789.822296052218</v>
       </c>
       <c r="W22" t="n">
-        <v>1176.760808297275</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X22" t="n">
-        <v>948.7712573992576</v>
+        <v>1272.41557511724</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.9786782557277</v>
+        <v>1051.62299597371</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433587</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>415.5933575433587</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>268.7034100454484</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647281</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368213</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>481.4479471244855</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420924</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>186.644906044182</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949679</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>411.963121559762</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614388</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179087</v>
       </c>
     </row>
     <row r="32">
@@ -6698,16 +6698,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309957</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>943.5102657467545</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -6929,49 +6929,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>705.9324428257313</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257313</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133955</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270437</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2389.141387573227</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>887.580907655971</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,28 +7160,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179092</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>593.6115863900022</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133955</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310024</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7357,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614394</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179092</v>
+        <v>945.4026036630045</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7433,25 +7433,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>874.8686257536382</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7640,40 +7640,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536382</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133955</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310024</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>28.18495819153215</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915893</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637022</v>
+        <v>34.43939438636983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>72.45868194084807</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>159.1791953250079</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>105.5468419254489</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615225</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>122.868077109012</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>79.16922954557543</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>43.10654495412189</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927382</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.34184461974004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>59.15888173022732</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>66.30572490086877</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>84.77391660561622</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>99.12798163925758</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.9846548059238</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>32.1518465585628</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>73.65209508333263</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>134.8730892594349</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0033420516643</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194275</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.131767663157994</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>39.70888054695352</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>111.1976478713719</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.62417772602038</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1032944.269564303</v>
+        <v>1032944.269564302</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1137324.567146157</v>
+        <v>1137324.567146156</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1137324.567146157</v>
+        <v>1137324.567146156</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1137324.567146157</v>
+        <v>1137324.567146156</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1137324.567146157</v>
+        <v>1137324.567146156</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.619452499</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>256406.2354960387</v>
+        <v>256406.2354960385</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="I2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="I2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="J2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911927</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657065</v>
+        <v>132804.2190657081</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929384</v>
+        <v>265413.0723929364</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545774</v>
+        <v>313577.1573545759</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704302</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911406</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417414</v>
+        <v>30877.42926417456</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049578</v>
+        <v>65018.34502049537</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273085</v>
+        <v>81897.40371273052</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320236</v>
+        <v>49839.57413202391</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246753.8673982314</v>
+        <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>210579.7944078831</v>
+        <v>210579.7944078826</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8011.893867085435</v>
+        <v>8011.893867085434</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732031</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426732026</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731962</v>
+        <v>8117.312426732019</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732016</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26448,16 +26448,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="N4" t="n">
+        <v>8117.312426731949</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731956</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731918</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667488</v>
+        <v>72593.65038667503</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738555</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-702525.0317411912</v>
+        <v>-702525.0317411913</v>
       </c>
       <c r="C6" t="n">
-        <v>-128613.0444077655</v>
+        <v>-128613.0444077664</v>
       </c>
       <c r="D6" t="n">
-        <v>-205304.2256421477</v>
+        <v>-205304.2256421456</v>
       </c>
       <c r="E6" t="n">
-        <v>-150320.3007930099</v>
+        <v>-150541.4321069831</v>
       </c>
       <c r="F6" t="n">
-        <v>-16046.80112956553</v>
+        <v>-16081.53905500281</v>
       </c>
       <c r="G6" t="n">
-        <v>173261.467640863</v>
+        <v>173226.7297154274</v>
       </c>
       <c r="H6" t="n">
-        <v>173261.4676408632</v>
+        <v>173226.7297154274</v>
       </c>
       <c r="I6" t="n">
-        <v>173261.467640863</v>
+        <v>173226.7297154272</v>
       </c>
       <c r="J6" t="n">
-        <v>104262.313221749</v>
+        <v>104227.5752963133</v>
       </c>
       <c r="K6" t="n">
-        <v>142384.038376689</v>
+        <v>142349.3004512527</v>
       </c>
       <c r="L6" t="n">
-        <v>108243.1226203674</v>
+        <v>108208.3846949319</v>
       </c>
       <c r="M6" t="n">
-        <v>91364.06392813225</v>
+        <v>91329.32600269683</v>
       </c>
       <c r="N6" t="n">
-        <v>123421.8935088395</v>
+        <v>123387.1555834034</v>
       </c>
       <c r="O6" t="n">
-        <v>173261.4676408632</v>
+        <v>173226.7297154273</v>
       </c>
       <c r="P6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154273</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695743</v>
+        <v>717.3319511695757</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.241237214949</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154304</v>
+        <v>383.6877278154321</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490094</v>
+        <v>969.2208239490077</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000962</v>
+        <v>103.2769374000974</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479651</v>
+        <v>216.7329409479634</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974099</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267245</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.973847813926</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846066</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.635991848969</v>
       </c>
       <c r="F4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506404</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139262</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846082</v>
+        <v>256.8971042846066</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.6359918489692</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506404</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139244</v>
+        <v>119.973847813926</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846084</v>
+        <v>256.8971042846066</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489705</v>
+        <v>328.635991848969</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506404</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>174.596860236385</v>
       </c>
       <c r="G2" t="n">
-        <v>187.4310348820948</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776191</v>
+        <v>50.47975262776184</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,7 +27430,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545475</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>114.4337294631474</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>189.931751588523</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>116.971294177154</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>34.72757549931833</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>259.8179242020145</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>28.73126316233778</v>
       </c>
       <c r="H5" t="n">
-        <v>259.1694217204872</v>
+        <v>309.9416328899765</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863699</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
         <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840621446</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>49.87066222586115</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.98397042359662</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333228</v>
+        <v>97.33388804333225</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951735</v>
+        <v>36.27346476951724</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713905</v>
+        <v>4.360182258713721</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>193.9455960238325</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643621</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315183</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.9061103790301</v>
       </c>
       <c r="V7" t="n">
-        <v>182.3568568659614</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>138.0986001232837</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>364.4563821858555</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>21.8291495831055</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>154.3372282655064</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.239505050323025e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.780087354243733e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88374653736512</v>
+        <v>2.883746537365127</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579055</v>
+        <v>29.53316922579061</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756931</v>
+        <v>244.7543826756936</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023587</v>
+        <v>366.8233736023595</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952467</v>
+        <v>455.0768316952476</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791136</v>
+        <v>506.3606591791146</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284023</v>
+        <v>514.5541040284033</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974778</v>
+        <v>485.8788493974788</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562763</v>
+        <v>414.6863567562772</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868879</v>
+        <v>311.4121838868885</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277619</v>
+        <v>181.1461434277623</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020775</v>
+        <v>65.71337422020788</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892096</v>
+        <v>0.2306997229892101</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316418</v>
+        <v>14.90155619316421</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189772</v>
+        <v>53.12316808189784</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862623</v>
+        <v>145.7740335862626</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453794</v>
+        <v>249.1510419453799</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438658</v>
+        <v>335.0143230438665</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874179</v>
+        <v>390.9459133874187</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189112</v>
+        <v>401.293088418912</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348669</v>
+        <v>367.1047769348677</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190654</v>
+        <v>294.6339480190659</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739556</v>
+        <v>196.954991573956</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392923</v>
+        <v>95.79765189392941</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399194</v>
+        <v>28.65944163399199</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989042</v>
+        <v>6.219132670989056</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141858</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572052</v>
+        <v>38.90055892572061</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402915</v>
+        <v>91.45394400402934</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545446</v>
+        <v>192.315520154545</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773277</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022533</v>
+        <v>197.9483399022537</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669597</v>
+        <v>182.8373307669601</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960658</v>
+        <v>156.4489225960661</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565103</v>
+        <v>58.16268574565115</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101759</v>
+        <v>22.54303853101764</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060652</v>
+        <v>5.526983886060663</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864672</v>
+        <v>0.07055724109864688</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869138</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639233</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285601</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203911</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975119</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544647</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.655443795455</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180157</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956794</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.010221962035</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825962</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.5991401696625</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900931</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.15702920968216</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.386650448149531</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.58595284985857</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837093</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469199</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193137</v>
+        <v>244.3158348193134</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>417.5746757598376</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747741</v>
       </c>
       <c r="M12" t="n">
-        <v>544.807692613462</v>
+        <v>655.2214742821471</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340497</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924466</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>299.7767623746082</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627647</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868433</v>
+        <v>10.42320468868432</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643799</v>
+        <v>0.1701284769643797</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535154</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092165</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798447</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085354</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329023</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100537</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770059</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531025</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806235</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493061</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194573</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811697</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493535</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377472</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601531</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>504.7812948344583</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305202</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>300.7687781170413</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>490.5075832355687</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>728.6709493241814</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>730.8697159579442</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>342.8454457931489</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,19 +33731,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M36" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33755,10 +33755,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34442,13 +34442,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>491.819738231079</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26.13373767211384</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900682</v>
+        <v>63.70847814900733</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573782</v>
+        <v>146.7335225573789</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252594</v>
+        <v>219.3104167252603</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518408</v>
+        <v>276.0144259518419</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318114</v>
+        <v>285.1410404318124</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757911</v>
+        <v>255.7806379757921</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010068</v>
+        <v>183.4533610010076</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243839</v>
+        <v>89.10649401243901</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959558</v>
+        <v>145.0274422600047</v>
       </c>
       <c r="K6" t="n">
-        <v>183.7682849118685</v>
+        <v>111.3096029710209</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639916</v>
+        <v>196.4599432639923</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653996</v>
+        <v>248.8118794654004</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355779</v>
+        <v>269.9513763355787</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6877278154304</v>
+        <v>224.5085324904232</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047351</v>
+        <v>266.2063825301846</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793408</v>
+        <v>56.97321748793448</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142348</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.9055454148611</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391679</v>
+        <v>242.3536283391683</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814819</v>
+        <v>242.0805122814823</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809994</v>
+        <v>207.4224586809998</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609596</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491133</v>
+        <v>22.15508137491155</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530514</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937048</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525313</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844774</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681823</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.9745125214247</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739927</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067654</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081467</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.0136023555304</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.478208152647</v>
+        <v>117.4782081526467</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>279.7332367854786</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036948999</v>
       </c>
       <c r="M12" t="n">
-        <v>402.6736586914437</v>
+        <v>513.0874403601288</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507165</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480022</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>159.7949882885867</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186259</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070195</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703698</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388465</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323311</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946632</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141996</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776291</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>82.88662398579406</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>362.64726091244</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561612</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>169.427066033708</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>351.9532034556946</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>597.3292372408481</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>588.7356820359258</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>205.0040068187899</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M36" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37403,10 +37403,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>357.8453308167487</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
